--- a/analysis/london_boroughs_uniqueness-euclidean.xlsx
+++ b/analysis/london_boroughs_uniqueness-euclidean.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,6 +38,9 @@
     <t xml:space="preserve">conservative_seats</t>
   </si>
   <si>
+    <t xml:space="preserve">labour_seats</t>
+  </si>
+  <si>
     <t xml:space="preserve">house_price</t>
   </si>
   <si>
@@ -77,10 +80,10 @@
     <t xml:space="preserve">-1.9233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6927</t>
+    <t xml:space="preserve">3.2426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.637</t>
   </si>
   <si>
     <t xml:space="preserve">very rare</t>
@@ -110,19 +113,22 @@
     <t xml:space="preserve">-1.0701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0562</t>
+    <t xml:space="preserve">2.1607</t>
   </si>
   <si>
     <t xml:space="preserve">1.5279</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
+    <t xml:space="preserve">-1.0082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**</t>
   </si>
   <si>
     <t xml:space="preserve">E09000033</t>
@@ -143,13 +149,16 @@
     <t xml:space="preserve">-1.6863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14</t>
+    <t xml:space="preserve">1.064</t>
   </si>
   <si>
     <t xml:space="preserve">1.5032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0788</t>
+    <t xml:space="preserve">-0.9272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2242</t>
   </si>
   <si>
     <t xml:space="preserve">very common</t>
@@ -158,6 +167,66 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">E09000027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richmond upon Thames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.0183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.2207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.7369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Havering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.3162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.4403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.6807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.8709</t>
+  </si>
+  <si>
     <t xml:space="preserve">E09000025</t>
   </si>
   <si>
@@ -176,67 +245,16 @@
     <t xml:space="preserve">-1.5441</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.7738</t>
+    <t xml:space="preserve">-1.4689</t>
   </si>
   <si>
     <t xml:space="preserve">-1.2108</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.9711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richmond upon Thames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.0183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.2207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Havering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.3162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.4403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.1344</t>
+    <t xml:space="preserve">1.2995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7852</t>
   </si>
   <si>
     <t xml:space="preserve">E09000006</t>
@@ -257,13 +275,16 @@
     <t xml:space="preserve">0.6126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5683</t>
+    <t xml:space="preserve">0.4622</t>
   </si>
   <si>
     <t xml:space="preserve">1.935</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4006</t>
+    <t xml:space="preserve">-1.3827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4428</t>
   </si>
   <si>
     <t xml:space="preserve">E09000002</t>
@@ -284,10 +305,10 @@
     <t xml:space="preserve">-1.6389</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.6459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.5932</t>
+    <t xml:space="preserve">-1.3823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.0862</t>
   </si>
   <si>
     <t xml:space="preserve">E09000004</t>
@@ -308,13 +329,16 @@
     <t xml:space="preserve">0.5652</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3149</t>
+    <t xml:space="preserve">-0.3586</t>
   </si>
   <si>
     <t xml:space="preserve">1.4327</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.2572</t>
+    <t xml:space="preserve">-1.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.932</t>
   </si>
   <si>
     <t xml:space="preserve">E09000030</t>
@@ -335,13 +359,100 @@
     <t xml:space="preserve">-0.5487</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.648</t>
+    <t xml:space="preserve">-0.6372</t>
   </si>
   <si>
     <t xml:space="preserve">-0.7996</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1204</t>
+    <t xml:space="preserve">-0.2524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sutton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.2779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hackney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.3167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.8805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.9511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0956</t>
   </si>
   <si>
     <t xml:space="preserve">E09000032</t>
@@ -362,64 +473,46 @@
     <t xml:space="preserve">1.4421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1364</t>
+    <t xml:space="preserve">1.0599</t>
   </si>
   <si>
     <t xml:space="preserve">1.3182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.6334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hackney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.3167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.8805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.6132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.9511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3102</t>
+    <t xml:space="preserve">-0.7754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.0345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0757</t>
   </si>
   <si>
     <t xml:space="preserve">E09000013</t>
@@ -440,493 +533,496 @@
     <t xml:space="preserve">1.134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.67</t>
+    <t xml:space="preserve">0.565</t>
   </si>
   <si>
     <t xml:space="preserve">0.3983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sutton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.7177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.2779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.8385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lambeth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.371</t>
+    <t xml:space="preserve">-0.0207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.0145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.8583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.2849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingston upon Thames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.6104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.2714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.8331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hillingdon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.2303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewisham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southwark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.0933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haringey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hounslow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.2314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croydon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.8097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redbridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.0464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.8449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.8833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ealing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.2837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenwich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E09000031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waltham Forest</t>
   </si>
   <si>
     <t xml:space="preserve">-0.0839</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.1319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.8583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.8331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hillingdon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.2303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.6215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.7506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewisham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kingston upon Thames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.6957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.6396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southwark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.7942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.0933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croydon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.7565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.6777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.0168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redbridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.0464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.6307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haringey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hounslow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.6472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.8449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.9591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ealing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenwich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.6302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09000031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waltham Forest</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.0655</t>
   </si>
   <si>
     <t xml:space="preserve">0.0912</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.9643</t>
+    <t xml:space="preserve">-0.8874</t>
   </si>
   <si>
     <t xml:space="preserve">-0.2239</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4632</t>
+    <t xml:space="preserve">0.4898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.484</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -1245,10 +1341,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -1301,45 +1397,46 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2"/>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="n">
-        <v>201.4112</v>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>23</v>
       </c>
       <c r="K2" t="n">
+        <v>224.475</v>
+      </c>
+      <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
-        <v>3.4342</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
+        <v>3.5595</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0002</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -1347,1605 +1444,1702 @@
       <c r="P2" t="s">
         <v>25</v>
       </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>168.0934</v>
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
       </c>
       <c r="K3" t="n">
+        <v>190.6002</v>
+      </c>
+      <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
-        <v>2.1509</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.0157</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
+        <v>2.4068</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.008</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="n">
-        <v>143.2247</v>
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
       </c>
       <c r="K4" t="n">
+        <v>152.141</v>
+      </c>
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
-        <v>1.193</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.1164</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
+        <v>1.0981</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1361</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="n">
+        <v>149.3493</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.0031</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1579</v>
+      </c>
+      <c r="O5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+      <c r="P5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" t="n">
-        <v>140.8162</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.1003</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.1356</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
+      <c r="Q5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" t="n">
-        <v>136.7639</v>
+        <v>69</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
       </c>
       <c r="K6" t="n">
+        <v>147.2719</v>
+      </c>
+      <c r="L6" t="n">
         <v>2</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.9442</v>
-      </c>
       <c r="M6" t="n">
-        <v>0.1725</v>
-      </c>
-      <c r="N6" t="s">
-        <v>46</v>
+        <v>0.9324</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1756</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" t="n">
-        <v>136.06</v>
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
       </c>
       <c r="K7" t="n">
+        <v>143.9205</v>
+      </c>
+      <c r="L7" t="n">
         <v>2</v>
       </c>
-      <c r="L7" t="n">
-        <v>0.9171</v>
-      </c>
       <c r="M7" t="n">
-        <v>0.1796</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
+        <v>0.8184</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2066</v>
       </c>
       <c r="O7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" t="n">
-        <v>133.0897</v>
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
       </c>
       <c r="K8" t="n">
+        <v>142.3287</v>
+      </c>
+      <c r="L8" t="n">
         <v>2</v>
       </c>
-      <c r="L8" t="n">
-        <v>0.8027</v>
-      </c>
       <c r="M8" t="n">
-        <v>0.2111</v>
-      </c>
-      <c r="N8" t="s">
-        <v>46</v>
+        <v>0.7642</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.2224</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" t="n">
-        <v>132.7445</v>
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
       </c>
       <c r="K9" t="n">
+        <v>132.8177</v>
+      </c>
+      <c r="L9" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
-        <v>0.7894</v>
-      </c>
       <c r="M9" t="n">
-        <v>0.2149</v>
-      </c>
-      <c r="N9" t="s">
-        <v>46</v>
+        <v>0.4405</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.3298</v>
       </c>
       <c r="O9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" t="n">
-        <v>125.0619</v>
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
       </c>
       <c r="K10" t="n">
+        <v>129.8748</v>
+      </c>
+      <c r="L10" t="n">
         <v>3</v>
       </c>
-      <c r="L10" t="n">
-        <v>0.4935</v>
-      </c>
       <c r="M10" t="n">
-        <v>0.3108</v>
-      </c>
-      <c r="N10" t="s">
-        <v>46</v>
+        <v>0.3404</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.3668</v>
       </c>
       <c r="O10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" t="n">
-        <v>124.2179</v>
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
       </c>
       <c r="K11" t="n">
+        <v>129.6813</v>
+      </c>
+      <c r="L11" t="n">
         <v>3</v>
       </c>
-      <c r="L11" t="n">
-        <v>0.4609</v>
-      </c>
       <c r="M11" t="n">
-        <v>0.3224</v>
-      </c>
-      <c r="N11" t="s">
-        <v>46</v>
+        <v>0.3338</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.3693</v>
       </c>
       <c r="O11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12" t="n">
-        <v>114.3054</v>
+        <v>59</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
       </c>
       <c r="K12" t="n">
+        <v>126.4757</v>
+      </c>
+      <c r="L12" t="n">
         <v>3</v>
       </c>
-      <c r="L12" t="n">
-        <v>0.0791</v>
-      </c>
       <c r="M12" t="n">
-        <v>0.4685</v>
-      </c>
-      <c r="N12" t="s">
-        <v>46</v>
+        <v>0.2247</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.4111</v>
       </c>
       <c r="O12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P12" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" t="n">
-        <v>114.2047</v>
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
       </c>
       <c r="K13" t="n">
+        <v>121.8627</v>
+      </c>
+      <c r="L13" t="n">
         <v>3</v>
       </c>
-      <c r="L13" t="n">
-        <v>0.0753</v>
-      </c>
       <c r="M13" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="N13" t="s">
-        <v>46</v>
+        <v>0.0678</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.473</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" t="n">
-        <v>113.9084</v>
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
       </c>
       <c r="K14" t="n">
+        <v>119.9336</v>
+      </c>
+      <c r="L14" t="n">
         <v>4</v>
       </c>
-      <c r="L14" t="n">
-        <v>0.0638</v>
-      </c>
       <c r="M14" t="n">
-        <v>0.4745</v>
-      </c>
-      <c r="N14" t="s">
-        <v>46</v>
+        <v>0.0021</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.4992</v>
       </c>
       <c r="O14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P14" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H15" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
-      </c>
-      <c r="J15" t="n">
-        <v>110.3854</v>
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
       </c>
       <c r="K15" t="n">
+        <v>119.6141</v>
+      </c>
+      <c r="L15" t="n">
         <v>4</v>
       </c>
-      <c r="L15" t="n">
-        <v>-0.0719</v>
-      </c>
       <c r="M15" t="n">
-        <v>0.5286</v>
-      </c>
-      <c r="N15" t="s">
-        <v>46</v>
+        <v>-0.0088</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.5035</v>
       </c>
       <c r="O15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P15" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H16" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
-      </c>
-      <c r="J16" t="n">
-        <v>110.2402</v>
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
       </c>
       <c r="K16" t="n">
+        <v>115.6114</v>
+      </c>
+      <c r="L16" t="n">
         <v>4</v>
       </c>
-      <c r="L16" t="n">
-        <v>-0.0774</v>
-      </c>
       <c r="M16" t="n">
-        <v>0.5309</v>
-      </c>
-      <c r="N16" t="s">
-        <v>46</v>
+        <v>-0.145</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5576</v>
       </c>
       <c r="O16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P16" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H17" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
-      </c>
-      <c r="J17" t="n">
-        <v>106.9102</v>
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
       </c>
       <c r="K17" t="n">
+        <v>113.1746</v>
+      </c>
+      <c r="L17" t="n">
         <v>5</v>
       </c>
-      <c r="L17" t="n">
-        <v>-0.2057</v>
-      </c>
       <c r="M17" t="n">
-        <v>0.5815</v>
-      </c>
-      <c r="N17" t="s">
-        <v>46</v>
+        <v>-0.2279</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5901</v>
       </c>
       <c r="O17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P17" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="H18" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
-      </c>
-      <c r="J18" t="n">
-        <v>106.732</v>
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
       </c>
       <c r="K18" t="n">
+        <v>112.4035</v>
+      </c>
+      <c r="L18" t="n">
         <v>5</v>
       </c>
-      <c r="L18" t="n">
-        <v>-0.2126</v>
-      </c>
       <c r="M18" t="n">
-        <v>0.5842</v>
-      </c>
-      <c r="N18" t="s">
-        <v>46</v>
+        <v>-0.2541</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6003</v>
       </c>
       <c r="O18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P18" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H19" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J19" t="n">
-        <v>104.337</v>
+        <v>195</v>
+      </c>
+      <c r="J19" t="s">
+        <v>196</v>
       </c>
       <c r="K19" t="n">
+        <v>110.1489</v>
+      </c>
+      <c r="L19" t="n">
         <v>5</v>
       </c>
-      <c r="L19" t="n">
-        <v>-0.3048</v>
-      </c>
       <c r="M19" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="N19" t="s">
-        <v>46</v>
+        <v>-0.3308</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6296</v>
       </c>
       <c r="O19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P19" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
-      </c>
-      <c r="J20" t="n">
-        <v>98.256</v>
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
       </c>
       <c r="K20" t="n">
+        <v>107.2242</v>
+      </c>
+      <c r="L20" t="n">
         <v>6</v>
       </c>
-      <c r="L20" t="n">
-        <v>-0.539</v>
-      </c>
       <c r="M20" t="n">
-        <v>0.7051</v>
-      </c>
-      <c r="N20" t="s">
-        <v>46</v>
+        <v>-0.4304</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.6665</v>
       </c>
       <c r="O20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P20" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E21" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="H21" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
-      </c>
-      <c r="J21" t="n">
-        <v>96.3698</v>
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
       </c>
       <c r="K21" t="n">
+        <v>105.141</v>
+      </c>
+      <c r="L21" t="n">
         <v>6</v>
       </c>
-      <c r="L21" t="n">
-        <v>-0.6117</v>
-      </c>
       <c r="M21" t="n">
-        <v>0.7296</v>
-      </c>
-      <c r="N21" t="s">
-        <v>46</v>
+        <v>-0.5012</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.6919</v>
       </c>
       <c r="O21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P21" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G22" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="H22" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
-      </c>
-      <c r="J22" t="n">
-        <v>94.3501</v>
+        <v>222</v>
+      </c>
+      <c r="J22" t="s">
+        <v>223</v>
       </c>
       <c r="K22" t="n">
+        <v>104.5302</v>
+      </c>
+      <c r="L22" t="n">
         <v>6</v>
       </c>
-      <c r="L22" t="n">
-        <v>-0.6895</v>
-      </c>
       <c r="M22" t="n">
-        <v>0.7547</v>
-      </c>
-      <c r="N22" t="s">
-        <v>46</v>
+        <v>-0.522</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.6992</v>
       </c>
       <c r="O22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P22" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F23" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="G23" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="H23" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
-      </c>
-      <c r="J23" t="n">
-        <v>94.1163</v>
+        <v>232</v>
+      </c>
+      <c r="J23" t="s">
+        <v>233</v>
       </c>
       <c r="K23" t="n">
+        <v>101.4602</v>
+      </c>
+      <c r="L23" t="n">
         <v>7</v>
       </c>
-      <c r="L23" t="n">
-        <v>-0.6985</v>
-      </c>
       <c r="M23" t="n">
-        <v>0.7576</v>
-      </c>
-      <c r="N23" t="s">
-        <v>46</v>
+        <v>-0.6265</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.7345</v>
       </c>
       <c r="O23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P23" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C24" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="E24" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" t="s">
-        <v>220</v>
-      </c>
-      <c r="J24" t="n">
-        <v>94.0657</v>
+        <v>241</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24" t="s">
+        <v>242</v>
       </c>
       <c r="K24" t="n">
+        <v>99.9242</v>
+      </c>
+      <c r="L24" t="n">
         <v>7</v>
       </c>
-      <c r="L24" t="n">
-        <v>-0.7004</v>
-      </c>
       <c r="M24" t="n">
-        <v>0.7582</v>
-      </c>
-      <c r="N24" t="s">
-        <v>46</v>
+        <v>-0.6788</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.7514</v>
       </c>
       <c r="O24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P24" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="C25" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="E25" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="G25" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="H25" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
-      </c>
-      <c r="J25" t="n">
-        <v>94.0195</v>
+        <v>250</v>
+      </c>
+      <c r="J25" t="s">
+        <v>118</v>
       </c>
       <c r="K25" t="n">
+        <v>99.0982</v>
+      </c>
+      <c r="L25" t="n">
         <v>7</v>
       </c>
-      <c r="L25" t="n">
-        <v>-0.7022</v>
-      </c>
       <c r="M25" t="n">
-        <v>0.7587</v>
-      </c>
-      <c r="N25" t="s">
-        <v>46</v>
+        <v>-0.7069</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.7602</v>
       </c>
       <c r="O25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P25" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="E26" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="G26" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="H26" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
-      </c>
-      <c r="J26" t="n">
-        <v>93.4754</v>
+        <v>259</v>
+      </c>
+      <c r="J26" t="s">
+        <v>260</v>
       </c>
       <c r="K26" t="n">
+        <v>98.4528</v>
+      </c>
+      <c r="L26" t="n">
         <v>8</v>
       </c>
-      <c r="L26" t="n">
-        <v>-0.7232</v>
-      </c>
       <c r="M26" t="n">
-        <v>0.7652</v>
-      </c>
-      <c r="N26" t="s">
-        <v>46</v>
+        <v>-0.7288</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.7669</v>
       </c>
       <c r="O26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P26" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="C27" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="E27" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="H27" t="s">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s">
-        <v>247</v>
-      </c>
-      <c r="J27" t="n">
-        <v>93.1767</v>
+        <v>268</v>
+      </c>
+      <c r="J27" t="s">
+        <v>269</v>
       </c>
       <c r="K27" t="n">
+        <v>97.273</v>
+      </c>
+      <c r="L27" t="n">
         <v>8</v>
       </c>
-      <c r="L27" t="n">
-        <v>-0.7347</v>
-      </c>
       <c r="M27" t="n">
-        <v>0.7687</v>
-      </c>
-      <c r="N27" t="s">
-        <v>46</v>
+        <v>-0.769</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.779</v>
       </c>
       <c r="O27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P27" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="C28" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D28" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="E28" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G28" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="H28" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="I28" t="s">
-        <v>256</v>
-      </c>
-      <c r="J28" t="n">
-        <v>91.813</v>
+        <v>277</v>
+      </c>
+      <c r="J28" t="s">
+        <v>278</v>
       </c>
       <c r="K28" t="n">
+        <v>97.127</v>
+      </c>
+      <c r="L28" t="n">
         <v>8</v>
       </c>
-      <c r="L28" t="n">
-        <v>-0.7872</v>
-      </c>
       <c r="M28" t="n">
-        <v>0.7844</v>
-      </c>
-      <c r="N28" t="s">
-        <v>46</v>
+        <v>-0.7739</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.7805</v>
       </c>
       <c r="O28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P28" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="D29" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="E29" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="F29" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="G29" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>286</v>
       </c>
       <c r="I29" t="s">
-        <v>263</v>
-      </c>
-      <c r="J29" t="n">
-        <v>90.994</v>
+        <v>287</v>
+      </c>
+      <c r="J29" t="s">
+        <v>288</v>
       </c>
       <c r="K29" t="n">
+        <v>96.8319</v>
+      </c>
+      <c r="L29" t="n">
         <v>9</v>
       </c>
-      <c r="L29" t="n">
-        <v>-0.8188</v>
-      </c>
       <c r="M29" t="n">
-        <v>0.7935</v>
-      </c>
-      <c r="N29" t="s">
-        <v>46</v>
+        <v>-0.784</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.7835</v>
       </c>
       <c r="O29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P29" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="C30" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="D30" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="E30" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="F30" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="G30" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="H30" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="I30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J30" t="n">
-        <v>90.8134</v>
+        <v>296</v>
+      </c>
+      <c r="J30" t="s">
+        <v>297</v>
       </c>
       <c r="K30" t="n">
+        <v>96.4117</v>
+      </c>
+      <c r="L30" t="n">
         <v>9</v>
       </c>
-      <c r="L30" t="n">
-        <v>-0.8257</v>
-      </c>
       <c r="M30" t="n">
-        <v>0.7955</v>
-      </c>
-      <c r="N30" t="s">
-        <v>46</v>
+        <v>-0.7983</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.7876</v>
       </c>
       <c r="O30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P30" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="C31" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="D31" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="E31" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="F31" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="G31" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="H31" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="I31" t="s">
-        <v>153</v>
-      </c>
-      <c r="J31" t="n">
-        <v>90.7786</v>
+        <v>306</v>
+      </c>
+      <c r="J31" t="s">
+        <v>127</v>
       </c>
       <c r="K31" t="n">
+        <v>94.0861</v>
+      </c>
+      <c r="L31" t="n">
         <v>9</v>
       </c>
-      <c r="L31" t="n">
-        <v>-0.8271</v>
-      </c>
       <c r="M31" t="n">
-        <v>0.7959</v>
-      </c>
-      <c r="N31" t="s">
-        <v>46</v>
+        <v>-0.8774</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.8099</v>
       </c>
       <c r="O31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P31" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="C32" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="D32" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="E32" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="F32" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="G32" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="H32" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="I32" t="s">
-        <v>287</v>
-      </c>
-      <c r="J32" t="n">
-        <v>87.7122</v>
+        <v>315</v>
+      </c>
+      <c r="J32" t="s">
+        <v>316</v>
       </c>
       <c r="K32" t="n">
+        <v>93.2866</v>
+      </c>
+      <c r="L32" t="n">
         <v>10</v>
       </c>
-      <c r="L32" t="n">
-        <v>-0.9452</v>
-      </c>
       <c r="M32" t="n">
-        <v>0.8277</v>
-      </c>
-      <c r="N32" t="s">
-        <v>46</v>
+        <v>-0.9046</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.8172</v>
       </c>
       <c r="O32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P32" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="C33" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="G33" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="H33" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="I33" t="s">
-        <v>295</v>
-      </c>
-      <c r="J33" t="n">
-        <v>86.4129</v>
+        <v>324</v>
+      </c>
+      <c r="J33" t="s">
+        <v>325</v>
       </c>
       <c r="K33" t="n">
+        <v>93.1691</v>
+      </c>
+      <c r="L33" t="n">
         <v>10</v>
       </c>
-      <c r="L33" t="n">
-        <v>-0.9952</v>
-      </c>
       <c r="M33" t="n">
-        <v>0.8402</v>
-      </c>
-      <c r="N33" t="s">
-        <v>46</v>
+        <v>-0.9086</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8182</v>
       </c>
       <c r="O33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P33" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>328</v>
       </c>
       <c r="D34" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E34" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="F34" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="G34" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="H34" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
-      </c>
-      <c r="J34" t="n">
-        <v>85.4165</v>
+        <v>333</v>
+      </c>
+      <c r="J34" t="s">
+        <v>334</v>
       </c>
       <c r="K34" t="n">
+        <v>90.0508</v>
+      </c>
+      <c r="L34" t="n">
         <v>10</v>
       </c>
-      <c r="L34" t="n">
-        <v>-1.0336</v>
-      </c>
       <c r="M34" t="n">
-        <v>0.8493</v>
-      </c>
-      <c r="N34" t="s">
-        <v>46</v>
+        <v>-1.0147</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.8449</v>
       </c>
       <c r="O34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P34" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
